--- a/tests/school_members_to.xlsx
+++ b/tests/school_members_to.xlsx
@@ -1,43 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\work\Python\excel_merge\tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A979C1-20BC-4FEF-8A7E-917765E7D484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="780" windowWidth="24735" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="6585" yWindow="1305" windowWidth="21285" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+  <si>
+    <t>学籍番号</t>
+  </si>
+  <si>
+    <t>名前(org)</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>クラス(org)</t>
+  </si>
+  <si>
+    <t>クラス</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>中山勇一</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>石原孝行</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>田中五月</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>高田紗希</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>大友純二</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>重松秀一</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>柳田愛結</t>
+  </si>
+  <si>
+    <t>石原孝行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大友純二</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,91 +137,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,276 +486,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="9" customWidth="1" style="2" min="3" max="4"/>
+    <col min="3" max="4" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>学籍番号</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>名前(org)</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>名前</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>クラス(org)</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>クラス</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>中山勇一</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>中山勇一</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>026</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>石原孝行</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>石原孝行1</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>041</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>田中五月</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>田中五月</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>034</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>高田紗希</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>高田紗希</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>017</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>大友純二</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>大友純二3</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>重松秀一</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>重松秀一</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>008</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>柳田愛結</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>柳田愛結</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>